--- a/h_over_w-truth_table.xlsx
+++ b/h_over_w-truth_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AME_Block-Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491C25E-48CD-4D2C-8289-57159A6B9B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA90AA46-A07A-4772-BADC-2F9A1F708785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20837B90-5666-4825-82B1-84B845CEEADF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20837B90-5666-4825-82B1-84B845CEEADF}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>CU_h[4:6]</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>CU_h</t>
+  </si>
+  <si>
+    <t>CU_w</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,13 +156,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -465,157 +479,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A66079-8A13-4AA9-8A94-DECECC42079B}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
